--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3324225.811303871</v>
+        <v>3317208.796412161</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370917.6740415355</v>
+        <v>583485.5917187429</v>
       </c>
     </row>
     <row r="8">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>248.0816215467611</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>202.5501749157408</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498675</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>43.31785343913997</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -901,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>43.53636164073672</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>161.5519252761216</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>58.69923944397664</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.4923106593519</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>403.2634945072138</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>132.997194893274</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>203.1609600883621</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>76.94799549862644</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>161.4046520073175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>76.27978370493953</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>185.3145202319263</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>12.09565252054838</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505273956</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>195.8155841663236</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>37.73441534125552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>57.64843562452468</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>5.908038455239146</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>187.8326399421082</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,13 +3009,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>190.6405752120378</v>
       </c>
       <c r="U34" t="n">
-        <v>190.9188397422796</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>145.8998232290785</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>33.35146980185854</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U43" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>225.1809026611657</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1491.745889830416</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1133.480191223665</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.52426527019</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.461377926619</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W2" t="n">
-        <v>1753.692722656504</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="X2" t="n">
-        <v>1753.692722656504</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>2247.308246834949</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4430,22 +4430,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1595.875667274027</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274027</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2653.172968148791</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2653.172968148791</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2653.172968148791</v>
+        <v>2533.965328113049</v>
       </c>
       <c r="U5" t="n">
-        <v>2653.172968148791</v>
+        <v>2280.203542751141</v>
       </c>
       <c r="V5" t="n">
-        <v>2322.110080805221</v>
+        <v>1949.14065540757</v>
       </c>
       <c r="W5" t="n">
-        <v>1969.341425535107</v>
+        <v>1596.372000137456</v>
       </c>
       <c r="X5" t="n">
-        <v>1595.875667274027</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="Y5" t="n">
-        <v>1595.875667274027</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,40 +4649,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>261.1482364572794</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>261.1482364572794</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>261.1482364572794</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>113.2351428748863</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>113.2351428748863</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>113.2351428748863</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>261.1482364572794</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X7" t="n">
-        <v>261.1482364572794</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>261.1482364572794</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1512.612574238668</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>2096.980396922474</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1738.714698315724</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1352.926445717479</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>941.9405409278718</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.351746278601</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.21241430279</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4892,34 +4892,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>188.2835827226615</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4989,25 +4989,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>259.1560728187101</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,49 +5026,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>506.3718661188911</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>1120.26893587578</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M12" t="n">
-        <v>1440.604255405482</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N12" t="n">
-        <v>1785.124911043099</v>
+        <v>1667.648898594694</v>
       </c>
       <c r="O12" t="n">
         <v>2033.878325127062</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>434.390024399142</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318119</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="X13" t="n">
-        <v>441.900558318119</v>
+        <v>616.0384892293818</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>616.0384892293818</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5278,25 +5278,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>550.0023305088838</v>
+        <v>818.3643854923162</v>
       </c>
       <c r="M15" t="n">
-        <v>1318.370476901345</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="N15" t="n">
-        <v>2122.782055165496</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O15" t="n">
-        <v>2371.535469249458</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.0432218861031</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.809876400802</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>822.6812376143602</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>822.6812376143602</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>822.6812376143602</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>594.6916867163428</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y16" t="n">
-        <v>594.6916867163428</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5503,19 +5503,19 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5524,43 +5524,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>1002.792923427374</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M18" t="n">
-        <v>1771.161069819836</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="N18" t="n">
-        <v>2122.782055165496</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O18" t="n">
-        <v>2371.535469249458</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>427.7268833816378</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>427.7268833816378</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>277.610243969302</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>277.610243969302</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>277.610243969302</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>109.4349222891226</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>109.4349222891226</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488382</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>898.7925182488382</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>609.3753482118775</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>609.3753482118775</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>609.3753482118775</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>618.8589595388348</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>939.1942790685366</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1283.714934706155</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1953.178696008814</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2473.479317744561</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1301.12275119798</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1077.337335987485</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>788.2086972010437</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>533.5242089951569</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>244.1070389581962</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5977,46 +5977,46 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>327.180197328635</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>647.5155168583368</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1451.927095122488</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3815.864295100686</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3815.864295100686</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3815.864295100686</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3815.864295100686</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3815.864295100686</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3647.688973420506</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3497.27096496845</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.859459491671</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281177</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>4326.074044281177</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>4326.074044281177</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>4036.656874244216</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>4036.656874244216</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>3815.864295100686</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,37 +6205,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6244,31 +6244,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>904.39166832551</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1672.759814717971</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>2017.280470355589</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3686.322319899657</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C28" t="n">
-        <v>3517.38613697175</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916675</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014291</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014291</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014291</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014291</v>
+        <v>958.1680262134333</v>
       </c>
       <c r="V28" t="n">
-        <v>4606.170084808405</v>
+        <v>703.4835380075465</v>
       </c>
       <c r="W28" t="n">
-        <v>4316.752914771444</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="X28" t="n">
-        <v>4088.763363873427</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="Y28" t="n">
-        <v>3867.970784729897</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>388.8958536704856</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>709.2311732001874</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1364.414563824403</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1309.18633122244</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1085.400916011945</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>796.2722772255036</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>796.2722772255036</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>506.8551071885429</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6712,25 +6712,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>138.7081686256434</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>752.6052383825321</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1440.604255405482</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1785.124911043099</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>861.4909633328887</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C34" t="n">
-        <v>692.5547804049818</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D34" t="n">
-        <v>542.438140992646</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E34" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1306.350032969985</v>
       </c>
       <c r="U34" t="n">
-        <v>1082.283542476419</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V34" t="n">
-        <v>1082.283542476419</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W34" t="n">
-        <v>1082.283542476419</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X34" t="n">
-        <v>1082.283542476419</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y34" t="n">
-        <v>861.4909633328887</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,25 +6922,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>711.1141612171745</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1031.449480746876</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1375.970136384494</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2045.433897687154</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>816.762183007535</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,37 +7168,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>618.8589595388348</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1318.370476901345</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>2122.782055165496</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="O39" t="n">
-        <v>2371.535469249458</v>
+        <v>2559.836337756808</v>
       </c>
       <c r="P39" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.9054447954965</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C40" t="n">
-        <v>130.9054447954965</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D40" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W40" t="n">
-        <v>130.9054447954965</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X40" t="n">
-        <v>130.9054447954965</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.9054447954965</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7456,7 +7456,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>511.8732695736292</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>758.6383974800932</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1527.006543872555</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>2331.418122136705</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U43" t="n">
-        <v>1271.749344574921</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,67 +7627,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7730,22 +7730,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>811.5008739770942</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1131.836193506796</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1476.356849144414</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2145.820610447073</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9248,10 +9248,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9494,16 +9494,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9731,16 +9731,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10442,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10679,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>198.3553848075931</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>100.2679714736577</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11153,13 +11153,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>90.29882560000139</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>57.18000134477734</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>90.9670373936883</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>36.233040826463</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>98.32359294372361</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>2.105225817279688</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>72.68483012301647</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>90.96703739368768</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>280.3293139433382</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>10.08817004149503</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,22 +25128,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>30.90698584635149</v>
       </c>
       <c r="U34" t="n">
-        <v>95.31851265629771</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>140.3375291694989</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>113.0824928447106</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U43" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="10">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380334</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380334</v>
-      </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.948567219</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="G2" t="n">
         <v>645197.9485672193</v>
       </c>
       <c r="H2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="I2" t="n">
         <v>645197.9485672192</v>
       </c>
-      <c r="I2" t="n">
-        <v>645197.9485672191</v>
-      </c>
       <c r="J2" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="K2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="L2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="M2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="N2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="O2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672194</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.1391806191</v>
-      </c>
-      <c r="C4" t="n">
-        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905759243</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905759211</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905759224</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905759512</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758694</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,22 +26493,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134526.6363205395</v>
+        <v>-134526.6363205397</v>
       </c>
       <c r="C6" t="n">
-        <v>455441.2428940049</v>
+        <v>455441.242894005</v>
       </c>
       <c r="D6" t="n">
-        <v>455441.2428940049</v>
+        <v>455441.242894005</v>
       </c>
       <c r="E6" t="n">
-        <v>27262.79245103066</v>
+        <v>26288.20119130904</v>
       </c>
       <c r="F6" t="n">
-        <v>552422.8289279265</v>
+        <v>551448.2376682052</v>
       </c>
       <c r="G6" t="n">
-        <v>552422.8289279268</v>
+        <v>551448.2376682052</v>
       </c>
       <c r="H6" t="n">
-        <v>552422.8289279267</v>
+        <v>551448.2376682053</v>
       </c>
       <c r="I6" t="n">
-        <v>552422.8289279266</v>
+        <v>551448.2376682051</v>
       </c>
       <c r="J6" t="n">
-        <v>375999.6097353344</v>
+        <v>375025.0184756123</v>
       </c>
       <c r="K6" t="n">
-        <v>552422.828927927</v>
+        <v>551448.2376682053</v>
       </c>
       <c r="L6" t="n">
-        <v>552422.8289279267</v>
+        <v>551448.2376682054</v>
       </c>
       <c r="M6" t="n">
-        <v>417621.8136940895</v>
+        <v>416647.2224343682</v>
       </c>
       <c r="N6" t="n">
-        <v>552422.8289279268</v>
+        <v>551448.2376682053</v>
       </c>
       <c r="O6" t="n">
-        <v>552422.8289279267</v>
+        <v>551448.2376682054</v>
       </c>
       <c r="P6" t="n">
-        <v>552422.8289279272</v>
+        <v>551448.2376682053</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26755,28 +26755,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>133.8487485255007</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>48.67399259254853</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27621,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>10.94204093407499</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>54.89639508153618</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>97.47164939781851</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724685</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>123.7805811116557</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>10.52067551358118</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>13.43676775329513</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>83.36203824822886</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29769,7 +29769,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -30528,7 +30528,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31612,7 +31612,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993462</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>139.432625713487</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,10 +31840,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>286.6638531320888</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
@@ -31855,7 +31855,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>118.6626388367733</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458549</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32019,7 +32019,7 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647508</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
@@ -32077,28 +32077,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>225.0728617982311</v>
+        <v>369.5218465715594</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565529</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32314,28 +32314,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>7.172050210143709</v>
+        <v>288.9613021006076</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,37 +32551,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>81.51477688711927</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,16 +32718,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32791,34 +32791,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>406.6589640746884</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,22 +33025,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
-        <v>106.5672573837438</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,16 +33201,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,25 +33262,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>313.8007424107043</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -33289,10 +33289,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,25 +33499,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>371.3774722154017</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -33526,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,37 +33736,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>101.400719959515</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,25 +33885,25 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130445</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,22 +33973,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>383.0062604371804</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -34000,10 +34000,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,16 +34149,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,28 +34219,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34392,7 +34392,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S44" t="n">
         <v>76.0697047810465</v>
@@ -34450,25 +34450,25 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>362.5890066571937</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>54.37527471535621</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939094</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>413.2876511703084</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
@@ -35503,7 +35503,7 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>369.9287136690584</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R14" t="n">
         <v>59.82538970349808</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>457.3588273218161</v>
+        <v>601.8078120951444</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>355.1727124703639</v>
+        <v>636.9619643608278</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>151.6102905369468</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,16 +36360,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
         <v>713.1546070951472</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>657.9250389069734</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>357.8333322160289</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>661.8014046709245</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>694.9485020433833</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>285.8890811851219</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109082</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>706.577290265162</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>64.38097739326282</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>250.8434100615969</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>594.8749721807787</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3317208.796412161</v>
+        <v>3322148.059261192</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8468878.82831051</v>
+        <v>8468878.828310512</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>248.0816215467611</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>212.0685156039289</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>128.7835007017903</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>403.2634945072138</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>141.4106407312801</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>132.997194893274</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>59.72683757586846</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>76.94799549862644</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>13.5399028361643</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>76.27978370493953</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>127.6176159584065</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>149.0799667719507</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505273999</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>5.908038455239146</v>
+        <v>41.20161853961358</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>24.22675650023018</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>89.99855356114573</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>190.6405752120378</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>145.8998232290785</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>88.99177052521325</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>161.1706059301398</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>206.806426921486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1860.708406770827</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.745889830416</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>1133.480191223665</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
         <v>882.8926947117852</v>
@@ -4369,13 +4369,13 @@
         <v>2247.308246834949</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834949</v>
+        <v>2033.097625012799</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834949</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.308246834949</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="3">
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,19 +4649,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4761,10 +4761,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W7" t="n">
-        <v>184.027325963587</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4795,28 +4795,28 @@
         <v>941.9405409278718</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>523.9767328260587</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>196.7820128620615</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.3364050629041</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>338.4002221349972</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>188.2835827226615</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -5007,7 +5007,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,10 +5026,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5041,25 +5041,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5126,13 +5126,13 @@
         <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>1002.792923427374</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M12" t="n">
-        <v>1323.128242957076</v>
+        <v>1019.893908186784</v>
       </c>
       <c r="N12" t="n">
-        <v>1667.648898594694</v>
+        <v>1364.414563824402</v>
       </c>
       <c r="O12" t="n">
         <v>2033.878325127062</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434.390024399142</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C13" t="n">
-        <v>356.6647764207315</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6647764207315</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>1261.454185815929</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0280401273991</v>
+        <v>1261.454185815929</v>
       </c>
       <c r="W13" t="n">
-        <v>844.0280401273991</v>
+        <v>972.0370157789685</v>
       </c>
       <c r="X13" t="n">
-        <v>616.0384892293818</v>
+        <v>744.0474648809511</v>
       </c>
       <c r="Y13" t="n">
-        <v>616.0384892293818</v>
+        <v>744.0474648809511</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5278,25 +5278,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5360,10 +5360,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>818.3643854923162</v>
+        <v>818.3643854923159</v>
       </c>
       <c r="M15" t="n">
         <v>1138.699705022018</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>324.3840174432676</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C16" t="n">
         <v>247.3337308726216</v>
@@ -5481,7 +5481,7 @@
         <v>726.8250614170374</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.0324822735073</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5706,10 +5706,10 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
         <v>325.2066423583032</v>
@@ -5752,10 +5752,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="23">
@@ -5977,25 +5977,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6016,10 +6016,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6174,22 +6174,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6205,34 +6205,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822454</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6244,31 +6244,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,19 +6293,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
         <v>508.1073603047985</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>414.0663679705859</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C28" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6399,37 +6399,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035276</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247821</v>
       </c>
       <c r="U28" t="n">
-        <v>958.1680262134333</v>
+        <v>922.517945320122</v>
       </c>
       <c r="V28" t="n">
-        <v>703.4835380075465</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="W28" t="n">
-        <v>414.0663679705859</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="X28" t="n">
-        <v>414.0663679705859</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y28" t="n">
-        <v>414.0663679705859</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,19 +6481,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.357857465301</v>
@@ -6530,19 +6530,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K30" t="n">
         <v>508.1073603047985</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>383.6411625027488</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>383.6411625027488</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>383.6411625027488</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>383.6411625027488</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>383.6411625027488</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6657,16 +6657,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>565.2896273329885</v>
       </c>
     </row>
     <row r="32">
@@ -6700,13 +6700,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>245.130185042679</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="C34" t="n">
-        <v>245.130185042679</v>
+        <v>299.6593126980815</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>299.6593126980815</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>299.6593126980815</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>299.6593126980815</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1306.350032969985</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1017.221394183544</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>762.5369059776569</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W34" t="n">
-        <v>473.1197359406963</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X34" t="n">
-        <v>245.130185042679</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y34" t="n">
-        <v>245.130185042679</v>
+        <v>468.5954956259884</v>
       </c>
     </row>
     <row r="35">
@@ -6934,7 +6934,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
@@ -6955,34 +6955,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,28 +7004,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K36" t="n">
         <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M36" t="n">
-        <v>1890.372576454149</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>816.762183007535</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>816.762183007535</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>527.3450129705744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7171,13 +7171,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,37 +7186,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,19 +7241,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K39" t="n">
         <v>508.1073603047985</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>416.2699138005285</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
-        <v>247.3337308726216</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1409.025593259707</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="V40" t="n">
-        <v>1336.117678709276</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W40" t="n">
-        <v>1046.700508672316</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X40" t="n">
-        <v>818.7109577742983</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y40" t="n">
-        <v>597.9183786307682</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7487,10 +7487,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
         <v>508.1073603047985</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7642,34 +7642,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7724,10 +7724,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
         <v>508.1073603047985</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>90.29882560000139</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>272.6974495624131</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>90.9670373936883</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>90.96703739368824</v>
       </c>
     </row>
     <row r="17">
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>280.3293139433382</v>
+        <v>245.0357338589638</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>142.2668119631474</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>76.49501490223186</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>30.90698584635149</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>140.3375291694989</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>108.92903945839</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>90.9670373936882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>14.74113413690327</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147617</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147614</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147617</v>
       </c>
     </row>
     <row r="13">
@@ -26316,7 +26316,7 @@
         <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380335</v>
@@ -26325,34 +26325,34 @@
         <v>645197.9485672193</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="G2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672198</v>
       </c>
       <c r="H2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="I2" t="n">
+        <v>645197.9485672191</v>
+      </c>
+      <c r="J2" t="n">
         <v>645197.9485672192</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645197.9485672194</v>
       </c>
       <c r="K2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="L2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672191</v>
       </c>
       <c r="M2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672192</v>
       </c>
       <c r="N2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="O2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672192</v>
       </c>
       <c r="P2" t="n">
         <v>645197.9485672194</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759134</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
+        <v>787.7936905759236</v>
+      </c>
+      <c r="N4" t="n">
+        <v>787.7936905759211</v>
+      </c>
+      <c r="O4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="O4" t="n">
-        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758694</v>
@@ -26478,34 +26478,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26524,46 +26524,46 @@
         <v>-134526.6363205397</v>
       </c>
       <c r="C6" t="n">
-        <v>455441.242894005</v>
+        <v>455441.2428940048</v>
       </c>
       <c r="D6" t="n">
         <v>455441.242894005</v>
       </c>
       <c r="E6" t="n">
-        <v>26288.20119130904</v>
+        <v>27165.3333250585</v>
       </c>
       <c r="F6" t="n">
-        <v>551448.2376682052</v>
+        <v>552325.3698019549</v>
       </c>
       <c r="G6" t="n">
-        <v>551448.2376682052</v>
+        <v>552325.3698019552</v>
       </c>
       <c r="H6" t="n">
-        <v>551448.2376682053</v>
+        <v>552325.3698019548</v>
       </c>
       <c r="I6" t="n">
-        <v>551448.2376682051</v>
+        <v>552325.3698019545</v>
       </c>
       <c r="J6" t="n">
-        <v>375025.0184756123</v>
+        <v>375902.1506093616</v>
       </c>
       <c r="K6" t="n">
-        <v>551448.2376682053</v>
+        <v>552325.3698019548</v>
       </c>
       <c r="L6" t="n">
-        <v>551448.2376682054</v>
+        <v>552325.3698019545</v>
       </c>
       <c r="M6" t="n">
-        <v>416647.2224343682</v>
+        <v>417524.3545681174</v>
       </c>
       <c r="N6" t="n">
-        <v>551448.2376682053</v>
+        <v>552325.3698019548</v>
       </c>
       <c r="O6" t="n">
-        <v>551448.2376682054</v>
+        <v>552325.3698019546</v>
       </c>
       <c r="P6" t="n">
-        <v>551448.2376682053</v>
+        <v>552325.3698019548</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>133.8487485255007</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>137.1724531134841</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>96.92615468724688</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>96.92615468724685</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>10.52067551358118</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>13.43676775329513</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>158.8578157762263</v>
       </c>
     </row>
     <row r="11">
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29471,7 +29471,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-2.698480392341963e-12</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30228,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -31369,7 +31369,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31384,7 +31384,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>35.71704454957967</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,22 +31840,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>81.51477688711901</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>118.6626388367733</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458549</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,16 +32016,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647508</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32080,10 +32080,10 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>369.5218465715594</v>
+        <v>81.10496900926091</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -32104,10 +32104,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32326,7 +32326,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>288.9613021006076</v>
+        <v>288.9613021006073</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32560,7 +32560,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
         <v>392.6063366508803</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,16 +32718,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927192</v>
       </c>
       <c r="O23" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32797,7 +32797,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
         <v>392.6063366508803</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33034,7 +33034,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
         <v>392.6063366508803</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33271,7 +33271,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
         <v>392.6063366508803</v>
@@ -33289,10 +33289,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33508,7 +33508,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
         <v>392.6063366508803</v>
@@ -33526,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33742,13 +33742,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>315.882135905433</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33763,10 +33763,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,25 +33885,25 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33982,7 +33982,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -34000,10 +34000,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,16 +34149,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34219,7 +34219,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
         <v>392.6063366508803</v>
@@ -34237,10 +34237,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,16 +34386,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34456,7 +34456,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
         <v>392.6063366508803</v>
@@ -34474,10 +34474,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>323.920986939094</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>405.0858067151006</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>369.9287136690584</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35667,10 +35667,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>601.8078120951444</v>
+        <v>313.3909345328459</v>
       </c>
       <c r="M15" t="n">
         <v>323.5710298279816</v>
@@ -35740,7 +35740,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>636.9619643608278</v>
+        <v>636.9619643608276</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,7 +36208,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
         <v>740.6069989111005</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,16 +36360,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O23" t="n">
         <v>713.1546070951472</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
         <v>740.6069989111005</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
         <v>740.6069989111005</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520599</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>740.6069989111005</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>740.6069989111005</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>548.168101429018</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
         <v>64.38097739326282</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>740.6069989111005</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>740.6069989111005</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
